--- a/doc/db/DB정의서_1.0.1.xlsx
+++ b/doc/db/DB정의서_1.0.1.xlsx
@@ -1344,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1426,30 +1426,27 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>43</v>
@@ -1467,88 +1464,93 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="0" t="s">
+    <row r="6" spans="1:9" ht="17.250000">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.250000">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.250000">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.250000">
-      <c r="A8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="A9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="I9" s="0"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="0" t="s">
@@ -1666,7 +1668,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>17</v>
@@ -1675,121 +1677,126 @@
         <v>17</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>86</v>
-      </c>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="0"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B18" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E18" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.250000">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:9" ht="17.250000">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="17.250000">
-      <c r="A19" s="6" t="s">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="17.250000">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="11" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="0" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>17</v>
@@ -1797,16 +1804,24 @@
       <c r="C22" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="E22" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>50</v>
-      </c>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="0"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="0" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>17</v>
@@ -1814,144 +1829,206 @@
       <c r="C23" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="D23" s="0" t="s">
+        <v>49</v>
+      </c>
       <c r="E23" s="0" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.250000">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:9" ht="17.250000">
+      <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="17.250000">
-      <c r="A26" s="6" t="s">
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="17.250000">
+      <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="11" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I29" s="11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="0" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="F30" s="0"/>
+      <c r="G30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="0"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="0" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1963,30 +2040,30 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C7:I7"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
